--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Nppc-Npr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Nppc-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Npr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +528,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.32836097726061</v>
+        <v>1.345980666666667</v>
       </c>
       <c r="H2">
-        <v>1.32836097726061</v>
+        <v>4.037942</v>
       </c>
       <c r="I2">
-        <v>0.4731718893445116</v>
+        <v>0.4408299556445331</v>
       </c>
       <c r="J2">
-        <v>0.4731718893445116</v>
+        <v>0.4408299556445331</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>12.9079981884713</v>
+        <v>11.94076733333333</v>
       </c>
       <c r="N2">
-        <v>12.9079981884713</v>
+        <v>35.82230199999999</v>
       </c>
       <c r="O2">
-        <v>0.5928887818457383</v>
+        <v>0.351152845403141</v>
       </c>
       <c r="P2">
-        <v>0.5928887818457383</v>
+        <v>0.351152845403141</v>
       </c>
       <c r="Q2">
-        <v>17.14648108811592</v>
+        <v>16.07204197583155</v>
       </c>
       <c r="R2">
-        <v>17.14648108811592</v>
+        <v>144.648377782484</v>
       </c>
       <c r="S2">
-        <v>0.280538305077114</v>
+        <v>0.1547986932635182</v>
       </c>
       <c r="T2">
-        <v>0.280538305077114</v>
+        <v>0.1547986932635182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +590,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.32836097726061</v>
+        <v>1.345980666666667</v>
       </c>
       <c r="H3">
-        <v>1.32836097726061</v>
+        <v>4.037942</v>
       </c>
       <c r="I3">
-        <v>0.4731718893445116</v>
+        <v>0.4408299556445331</v>
       </c>
       <c r="J3">
-        <v>0.4731718893445116</v>
+        <v>0.4408299556445331</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.863367004654901</v>
+        <v>12.91523933333333</v>
       </c>
       <c r="N3">
-        <v>8.863367004654901</v>
+        <v>38.745718</v>
       </c>
       <c r="O3">
-        <v>0.4071112181542617</v>
+        <v>0.3798100167568152</v>
       </c>
       <c r="P3">
-        <v>0.4071112181542617</v>
+        <v>0.3798100167568153</v>
       </c>
       <c r="Q3">
-        <v>11.77375085612283</v>
+        <v>17.38366244803955</v>
       </c>
       <c r="R3">
-        <v>11.77375085612283</v>
+        <v>156.452962032356</v>
       </c>
       <c r="S3">
-        <v>0.1926335842673977</v>
+        <v>0.1674316328402562</v>
       </c>
       <c r="T3">
-        <v>0.1926335842673977</v>
+        <v>0.1674316328402563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,60 +652,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.47899298263079</v>
+        <v>1.345980666666667</v>
       </c>
       <c r="H4">
-        <v>1.47899298263079</v>
+        <v>4.037942</v>
       </c>
       <c r="I4">
-        <v>0.5268281106554883</v>
+        <v>0.4408299556445331</v>
       </c>
       <c r="J4">
-        <v>0.5268281106554883</v>
+        <v>0.4408299556445331</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>12.9079981884713</v>
+        <v>0.08745933333333333</v>
       </c>
       <c r="N4">
-        <v>12.9079981884713</v>
+        <v>0.262378</v>
       </c>
       <c r="O4">
-        <v>0.5928887818457383</v>
+        <v>0.002571994989913974</v>
       </c>
       <c r="P4">
-        <v>0.5928887818457383</v>
+        <v>0.002571994989913974</v>
       </c>
       <c r="Q4">
-        <v>19.09083874056</v>
+        <v>0.1177185717862222</v>
       </c>
       <c r="R4">
-        <v>19.09083874056</v>
+        <v>1.059467146076</v>
       </c>
       <c r="S4">
-        <v>0.3123504767686243</v>
+        <v>0.001133812437321738</v>
       </c>
       <c r="T4">
-        <v>0.3123504767686243</v>
+        <v>0.001133812437321739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,52 +717,300 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.47899298263079</v>
+        <v>1.345980666666667</v>
       </c>
       <c r="H5">
-        <v>1.47899298263079</v>
+        <v>4.037942</v>
       </c>
       <c r="I5">
-        <v>0.5268281106554883</v>
+        <v>0.4408299556445331</v>
       </c>
       <c r="J5">
-        <v>0.5268281106554883</v>
+        <v>0.4408299556445331</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.863367004654901</v>
+        <v>9.061006666666666</v>
       </c>
       <c r="N5">
-        <v>8.863367004654901</v>
+        <v>27.18302</v>
       </c>
       <c r="O5">
-        <v>0.4071112181542617</v>
+        <v>0.2664651428501298</v>
       </c>
       <c r="P5">
-        <v>0.4071112181542617</v>
+        <v>0.2664651428501298</v>
       </c>
       <c r="Q5">
-        <v>13.10885760236588</v>
+        <v>12.19593979387111</v>
       </c>
       <c r="R5">
-        <v>13.10885760236588</v>
+        <v>109.76345814484</v>
       </c>
       <c r="S5">
-        <v>0.214477633886864</v>
+        <v>0.1174658171034369</v>
       </c>
       <c r="T5">
-        <v>0.214477633886864</v>
+        <v>0.1174658171034369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.707307</v>
+      </c>
+      <c r="H6">
+        <v>5.121921</v>
+      </c>
+      <c r="I6">
+        <v>0.5591700443554668</v>
+      </c>
+      <c r="J6">
+        <v>0.5591700443554669</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>11.94076733333333</v>
+      </c>
+      <c r="N6">
+        <v>35.82230199999999</v>
+      </c>
+      <c r="O6">
+        <v>0.351152845403141</v>
+      </c>
+      <c r="P6">
+        <v>0.351152845403141</v>
+      </c>
+      <c r="Q6">
+        <v>20.38655565357133</v>
+      </c>
+      <c r="R6">
+        <v>183.4790008821419</v>
+      </c>
+      <c r="S6">
+        <v>0.1963541521396227</v>
+      </c>
+      <c r="T6">
+        <v>0.1963541521396227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.707307</v>
+      </c>
+      <c r="H7">
+        <v>5.121921</v>
+      </c>
+      <c r="I7">
+        <v>0.5591700443554668</v>
+      </c>
+      <c r="J7">
+        <v>0.5591700443554669</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>12.91523933333333</v>
+      </c>
+      <c r="N7">
+        <v>38.745718</v>
+      </c>
+      <c r="O7">
+        <v>0.3798100167568152</v>
+      </c>
+      <c r="P7">
+        <v>0.3798100167568153</v>
+      </c>
+      <c r="Q7">
+        <v>22.05027852047533</v>
+      </c>
+      <c r="R7">
+        <v>198.4525066842779</v>
+      </c>
+      <c r="S7">
+        <v>0.212378383916559</v>
+      </c>
+      <c r="T7">
+        <v>0.2123783839165591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.707307</v>
+      </c>
+      <c r="H8">
+        <v>5.121921</v>
+      </c>
+      <c r="I8">
+        <v>0.5591700443554668</v>
+      </c>
+      <c r="J8">
+        <v>0.5591700443554669</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.08745933333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.262378</v>
+      </c>
+      <c r="O8">
+        <v>0.002571994989913974</v>
+      </c>
+      <c r="P8">
+        <v>0.002571994989913974</v>
+      </c>
+      <c r="Q8">
+        <v>0.1493199320153333</v>
+      </c>
+      <c r="R8">
+        <v>1.343879388138</v>
+      </c>
+      <c r="S8">
+        <v>0.001438182552592235</v>
+      </c>
+      <c r="T8">
+        <v>0.001438182552592236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.707307</v>
+      </c>
+      <c r="H9">
+        <v>5.121921</v>
+      </c>
+      <c r="I9">
+        <v>0.5591700443554668</v>
+      </c>
+      <c r="J9">
+        <v>0.5591700443554669</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.061006666666666</v>
+      </c>
+      <c r="N9">
+        <v>27.18302</v>
+      </c>
+      <c r="O9">
+        <v>0.2664651428501298</v>
+      </c>
+      <c r="P9">
+        <v>0.2664651428501298</v>
+      </c>
+      <c r="Q9">
+        <v>15.46992010904667</v>
+      </c>
+      <c r="R9">
+        <v>139.22928098142</v>
+      </c>
+      <c r="S9">
+        <v>0.1489993257466929</v>
+      </c>
+      <c r="T9">
+        <v>0.1489993257466929</v>
       </c>
     </row>
   </sheetData>
